--- a/covid19-model.xlsx
+++ b/covid19-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CC678-954D-4411-AB72-C28B8ACDF9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED6C54D-E228-44C7-8D46-5A46F3727ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0D914E2D-B443-4722-AC51-958E13706A69}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Tag</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Todesrate bei kritischem Verlauf schlecht behandelt</t>
   </si>
   <si>
-    <t>Effektiv</t>
-  </si>
-  <si>
     <t>Ansteckungen pro ansteckend Infizierten pro Tag Vor Maßnahme</t>
   </si>
   <si>
@@ -377,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -406,6 +403,7 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -11304,10 +11302,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$27:$F$209</c:f>
+              <c:f>Tabelle1!$F$27:$F$455</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43881</c:v>
                 </c:pt>
@@ -11856,16 +11854,754 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44294</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$N$27:$N$210</c:f>
+              <c:f>Tabelle1!$N$27:$N$455</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="184"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>4.8100000000000005</c:v>
                 </c:pt>
@@ -12416,6 +13152,741 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="183">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="428">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -12458,10 +13929,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$27:$F$209</c:f>
+              <c:f>Tabelle1!$F$27:$F$455</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43881</c:v>
                 </c:pt>
@@ -13010,16 +14481,754 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44294</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$27:$O$210</c:f>
+              <c:f>Tabelle1!$O$27:$O$455</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="184"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13571,6 +15780,741 @@
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>2115.2709565949131</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2131.9634335886121</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2148.6827729722136</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2165.4275948070763</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2182.1964992369972</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2198.9880655940401</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2215.8008509960432</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2232.633389349704</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2249.4841912527536</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2266.3517447001145</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2283.2345160214413</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2300.1309505006438</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2317.039472407158</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2333.9584844984784</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2350.8863672873572</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2367.8214784271468</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2384.7621524573001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2401.7067009922348</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2418.6534132829788</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2435.6005569212753</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2452.546378446928</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2469.4891037099965</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2486.4269379667003</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2503.3580658084124</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2520.2806510923024</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2537.1928369962452</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2554.0927462294217</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2570.9784813483507</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2587.8481250886502</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2604.6997406379</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2621.5313718321113</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2638.3410433097756</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2655.1267606806391</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2671.8865107575821</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2688.6182618707426</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2705.3199642500113</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2721.9895504423293</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2738.6249357264892</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2755.224018498036</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2771.7846806181633</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2788.3047877403387</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2804.7821896385954</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2821.2147205603897</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2837.6001996165128</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2853.9364312055131</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2870.221205460276</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2886.4522987030632</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2902.6274739010487</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2918.7444811229147</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2934.8010580037499</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2950.7949302265752</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2966.7238120252823</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2982.585406708391</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2998.3774071987295</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3014.097496582785</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3029.7433486650266</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3045.3126285257676</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3060.8029930842704</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3076.2120916708236</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3091.5375666116515</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3106.7770538289155</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3121.9281834559952</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3136.9885804662304</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3151.9558653127092</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3166.8276545769531</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3181.6015616257523</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3196.2751972764731</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3210.846170471872</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3225.31208896522</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3239.6705600158057</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3253.9191910941327</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3268.0555905956862</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3282.0773685622003</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3295.9821374098115</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3309.7675126641357</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3323.4311137023742</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3336.970564502973</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3350.3834944028399</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3363.667538861971</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3376.8203402348308</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3389.8395485478518</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3402.7228222822919</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3415.4678291618156</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3428.0722469445536</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3440.5337642193294</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3452.8500812058496</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3465.0189105586178</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3477.0379781741776</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3488.9050240009988</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3500.6178028517338</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3512.1740852171019</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3523.5716580810663</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3534.8083257369408</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3545.8819106040833</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3556.7902540446903</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3567.5312171803062</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3578.1026817076149</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3588.5025507128362</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3598.7287494842558</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3608.7792263223546</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3618.6519533470191</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3628.3449273013275</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3637.8561703515616</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3647.1837308827762</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3656.3256842896362</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3665.2801337618694</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3674.0452110638835</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3682.6190773079479</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3690.9999237204993</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3699.1859724010919</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3707.1754770733432</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3714.9667238275479</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3722.5580318543625</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3729.9477541690894</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3737.1342783259861</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3744.1160271221852</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3750.8914592906413</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3757.4590701816242</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3763.8173924323119</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3769.9649966239404</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3775.9004919260888</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3781.6225267275977</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3787.1297892537286</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3792.4210081689125</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3797.4949531648999</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3802.3504355336445</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3806.9863087245994</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3811.4014688859279</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3815.594855389314</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3819.565451337844</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3823.3122840566193</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3826.8344255657803</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3830.1309930353991</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3833.2011492220299</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3836.0441028864907</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3838.6591091925438</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3841.0454700861483</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3843.2025346550099</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3845.129699468057</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3846.8264088946407</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3848.2921554030881</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3849.5264798384605</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3850.5289716791995</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3851.299269272431</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3851.8370600478111</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3852.1420807095346</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3852.2141174065582</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3852.0530058806935</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3851.6586315924715</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3851.0309298247585</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3850.1698857637984</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3849.0755345578109</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3847.7479613529113</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3846.1873013063541</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3844.3937395770508</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3842.367511293357</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3840.1089014980853</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3837.6182450707583</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3834.8959266271586</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3831.9423803962227</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3828.7580900742751</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3825.3435886568004</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3821.6994582477419</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3817.8263298464781</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3813.7248831126899</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3809.3958461091279</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3804.8399950225621</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3800.0581538630267</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>3795.0511941416671</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3789.8200345272553</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3784.365640481722</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3778.6890238749684</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3772.7912425790928</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3766.6734000424894</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3760.3366448439783</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3753.782170227355</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3747.0112136166808</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3740.0250561125913</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3732.8250219700776</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3725.4124780580405</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3717.7888333009978</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3709.9555381034143</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3701.9140837569566</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3693.6660018311795</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3685.2128635479658</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3676.5562791403481</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3667.6978971959625</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3658.6394039856768</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3649.3825227779535</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3639.9290131392318</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3630.2806702210055</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3620.4393240339823</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3610.4068387098469</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3600.1851117511978</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3589.7760732700644</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3579.1816852156726</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3568.4039405917624</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3557.4448626642898</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3546.306504159812</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3534.990946455107</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3523.5002987587709</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3511.8366972851172</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3500.002304420987</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3487.9993078861166</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3475.8299198874647</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3463.4963762681828</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3451.0009356516366</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3438.3458785811904</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3425.5335066561761</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3412.5661416645653</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3399.4461247131112</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3386.1758153551646</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>3372.7575907170144</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3359.1938446231024</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3345.4869867206539</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>3331.6394416043154</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>3317.6536479413312</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>3303.5320575976348</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>3289.277134765553</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>3274.8913550934358</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>3260.3772048178735</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>3245.7371798988338</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3230.9737851583573</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>3216.089533423155</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>3201.0869446715969</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>3185.9685451856176</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>3170.7368667079045</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3155.3944456048216</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>3139.9438220355391</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>3124.3875391277288</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>3108.7281421602684</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>3092.968177753346</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>3077.110193066284</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>3061.156735003608</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3045.1103494296094</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>3028.9735803917283</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3012.7489693532002</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2996.4390544352054</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2980.0463696689635</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2963.573444257876</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2947.0228018502589</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2930.3969598227077</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2913.6984285745316</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2896.9297108335445</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2880.0933009731725</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2863.1916843415497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13612,10 +16556,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$F$27:$F$209</c:f>
+              <c:f>Tabelle1!$F$27:$F$455</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43881</c:v>
                 </c:pt>
@@ -14164,16 +17108,754 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44260</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44261</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44278</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44281</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44288</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44289</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44294</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$W$27:$W$210</c:f>
+              <c:f>Tabelle1!$W$27:$W$455</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="184"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14725,6 +18407,741 @@
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>1453.2195483698288</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1469.3373824856985</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1485.561259719391</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1501.8914082788162</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1518.3280483076667</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1534.8713917751018</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1551.5216424156122</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1568.2789956510094</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1585.1436384545261</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1602.1157491597087</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1619.1954972530348</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1636.3830431896477</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1653.6785382530247</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1671.0821244560557</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1688.5939344633709</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1706.2140915086734</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1723.94270928689</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1741.7798918114529</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1759.7257332389963</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1777.7803176785651</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1795.9437190052556</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1814.2160006924823</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1832.5972156672735</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1851.0874061827185</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1869.6866036949639</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1888.394828734705</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1907.2120907696683</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1926.138388060918</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1945.1737075192323</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1964.3180245671158</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1983.5713030080462</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2002.9334949007534</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2022.4045404344638</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2041.9843678014793</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2061.6728930654785</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2081.4700200263815</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2101.3756400842763</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2121.3896321054754</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2141.511862293271</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2161.7421840643669</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2182.0804379303163</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2202.5264513822699</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2223.080038777211</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2243.7410012245273</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2264.5091264729367</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2285.3841887986337</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2306.3659488957219</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2327.4541537696623</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2348.6485366338461</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2369.9488168088833</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2391.3546996240866</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2412.86587632086</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2434.4820239580949</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2456.2028053200024</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2478.0278688269473</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2499.956848449744</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2521.989363627647</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2544.125019190014</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2566.3634052814336</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2588.7040972900591</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2611.1466557789981</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2633.6906264207573</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2656.3355399349089</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2679.0809120292211</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2701.9262433444787</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2724.871019403136</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2747.9147105618504</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2771.0567719678884</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2794.2966435193985</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2817.6337498295966</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2841.0675001949662</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2864.5972885675988</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2888.2224935318081</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2911.9424782851083</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2935.7565906236009</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2959.6641629317969</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2983.6645121768697</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3007.756939907365</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3031.9407322564043</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3056.2151599494532</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3080.5794783167325</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3105.0329273103566</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3129.5747315262679</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3154.2041002310189</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3178.9202273934379</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3203.7222917212102</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3228.6094567024056</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3253.5808706519906</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3278.6356667633722</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3303.77296316501</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3328.9918629821368</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3354.2914544036203</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3379.6708107539816</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3405.128990570588</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3430.6650376860393</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3456.2779813157626</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3481.9668361508311</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3507.7306024560285</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3533.5682661731771</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3559.4787990297364</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3585.4611586526812</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3611.5142886876665</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3637.6371189234624</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3663.8285654216661</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3690.0875306516759</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3716.4129036309159</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3742.803560070306</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3769.2583625249554</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3795.7761605500614</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3822.35579086199</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3848.9960775045161</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3875.6958320201834</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3902.4538536267601</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3929.2689293987478</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3956.1398344539125</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3983.0653321447858</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>4010.0441742551025</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4037.0751012011156</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>4064.1568422377427</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>4091.2881156694839</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>4118.4676290660555</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>4145.6940794826705</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4172.9661536849062</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4200.2825283780885</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>4227.6418704411171</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4255.0428371646631</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4282.4840764936525</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4309.9642272739657</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4337.4819195032505</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>4365.0357745857818</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4392.6244055912593</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>4420.2464175174609</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4447.90040755665</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4475.5849653656378</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>4503.2986733394027</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4531.0401068881538</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>4558.8078347177416</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>4586.6004191132906</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4614.4164162259585</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4642.2543763626918</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4670.1128442788677</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>4697.9903594737007</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>4725.8854564882904</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>4753.7966652061896</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>4781.7225111563575</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>4809.661515818384</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4837.6121969298392</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>4865.5730687956238</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4893.54264259919</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4921.5194267154857</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4949.501927025497</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4977.4886472322432</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5005.4780891780847</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5033.4687531632098</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5061.4591382651461</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5089.4477426591629</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5117.4330639394193</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5145.4135994407088</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5173.3878465606604</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5201.354303082242</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5229.311467496429</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5257.2578393248859</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>5285.1919194425118</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5313.1122103997131</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>5341.0172167442388</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>5368.905445342446</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>5396.7754056998474</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>5424.6256102807829</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>5452.4545748270812</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>5480.2608186755651</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>5508.0428650742469</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>5535.7992414970777</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>5563.5284799571054</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>5591.2291173179028</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5618.8996956031142</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5646.5387623039978</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5674.1448706848087</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5701.7165800858966</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5729.2524562243807</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>5756.7510714922673</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>5784.2110052518774</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>5811.6308441284546</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5839.0091822998311</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>5866.3446217830178</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>5893.6357727176019</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>5920.8812536458245</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>5948.0796917892239</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5975.2297233217269</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>6002.3299936390722</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>6029.3791576244603</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>6056.3758799103107</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>6083.3188351360304</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>6110.2067082016883</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>6137.0381945174922</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>6163.8120002489686</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>6190.5268425577633</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>6217.1814498379581</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>6243.7745619478255</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>6270.3049304369206</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6296.7713187684576</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>6323.1725025368623</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6349.5072696804391</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>6375.7744206890893</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>6401.9727688069925</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>6428.101140230202</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>6454.1583742990897</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>6480.1433236855755</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>6506.0548545751008</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>6531.8918468432748</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>6557.653194227174</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>6583.337804491217</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>6608.9445995876113</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>6634.4725158113033</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>6659.9205039494163</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>6685.2875294251508</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6710.5725724360991</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>6735.7746280869778</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>6760.8927065167427</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>6785.9258330200737</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>6810.8730481632256</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>6835.7334078942222</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>6860.5059836474074</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>6885.1898624423302</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>6909.7841469769846</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>6934.2879557153974</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>6958.7004229695767</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>6983.0206989758353</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>7007.2479499654964</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>7031.3813582300099</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>7055.4201221804879</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>7079.3634564016984</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>7103.2105917005301</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>7126.9607751489739</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>7150.6132701216357</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>7174.1673563278318</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>7197.6223298383029</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>7220.9775031065828</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>7244.2322049850691</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>7267.3857807358409</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>7290.4375920362818</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>7313.3870169795455</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>7336.2334500699289</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>7358.9763022132074</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>7381.6150007019824</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>7404.148989196121</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>7426.5777276983299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18178,7 +22595,7 @@
   <dimension ref="A1:AR455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18324,7 +22741,7 @@
     </row>
     <row r="7" spans="4:44" x14ac:dyDescent="0.35">
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="21">
         <v>0.65</v>
@@ -18332,13 +22749,10 @@
     </row>
     <row r="8" spans="4:44" x14ac:dyDescent="0.35">
       <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="21">
+        <v>48</v>
+      </c>
+      <c r="H8" s="22">
         <v>0.08</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="4:44" x14ac:dyDescent="0.35">
@@ -26332,7 +30746,7 @@
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B92">
-        <f t="shared" ref="B92:B123" si="42">W97</f>
+        <f t="shared" ref="B92:B104" si="42">W97</f>
         <v>223.46362838307147</v>
       </c>
       <c r="F92" s="10">

--- a/covid19-model.xlsx
+++ b/covid19-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED6C54D-E228-44C7-8D46-5A46F3727ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE206F9A-471D-4674-8685-14F6CE05AFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0D914E2D-B443-4722-AC51-958E13706A69}"/>
   </bookViews>
@@ -22113,15 +22113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1807882</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3049173</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:colOff>1420585</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22595,7 +22595,7 @@
   <dimension ref="A1:AR455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
